--- a/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H2">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N2">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O2">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P2">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q2">
-        <v>13.60614239311511</v>
+        <v>19.74184580283233</v>
       </c>
       <c r="R2">
-        <v>13.60614239311511</v>
+        <v>177.676612225491</v>
       </c>
       <c r="S2">
-        <v>0.1465254317423247</v>
+        <v>0.1342106970915875</v>
       </c>
       <c r="T2">
-        <v>0.1465254317423247</v>
+        <v>0.1342106970915876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H3">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N3">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P3">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q3">
-        <v>38.60446506751851</v>
+        <v>55.58318000508701</v>
       </c>
       <c r="R3">
-        <v>38.60446506751851</v>
+        <v>500.2486200457831</v>
       </c>
       <c r="S3">
-        <v>0.415733993351556</v>
+        <v>0.3778703070398646</v>
       </c>
       <c r="T3">
-        <v>0.415733993351556</v>
+        <v>0.3778703070398647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H4">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N4">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O4">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P4">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q4">
-        <v>7.192052372767265</v>
+        <v>11.60201127489656</v>
       </c>
       <c r="R4">
-        <v>7.192052372767265</v>
+        <v>104.418101474069</v>
       </c>
       <c r="S4">
-        <v>0.07745167943901428</v>
+        <v>0.07887378092300405</v>
       </c>
       <c r="T4">
-        <v>0.07745167943901428</v>
+        <v>0.07887378092300409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H5">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.967185155803</v>
+        <v>8.555183333333334</v>
       </c>
       <c r="N5">
-        <v>7.967185155803</v>
+        <v>25.66555</v>
       </c>
       <c r="O5">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="P5">
-        <v>0.1905761737590932</v>
+        <v>0.1990520115521681</v>
       </c>
       <c r="Q5">
-        <v>13.98616059368773</v>
+        <v>21.60315256317222</v>
       </c>
       <c r="R5">
-        <v>13.98616059368773</v>
+        <v>194.42837306855</v>
       </c>
       <c r="S5">
-        <v>0.1506178724430056</v>
+        <v>0.1468643911940235</v>
       </c>
       <c r="T5">
-        <v>0.1506178724430056</v>
+        <v>0.1468643911940236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H6">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.7507086362996</v>
+        <v>7.818077</v>
       </c>
       <c r="N6">
-        <v>7.7507086362996</v>
+        <v>23.454231</v>
       </c>
       <c r="O6">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="P6">
-        <v>0.1853980253931556</v>
+        <v>0.1819018824829088</v>
       </c>
       <c r="Q6">
-        <v>3.609653546921646</v>
+        <v>2.923770558126333</v>
       </c>
       <c r="R6">
-        <v>3.609653546921646</v>
+        <v>26.313935023137</v>
       </c>
       <c r="S6">
-        <v>0.03887259365083092</v>
+        <v>0.0198766259579283</v>
       </c>
       <c r="T6">
-        <v>0.03887259365083092</v>
+        <v>0.01987662595792831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H7">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.9909473349292</v>
+        <v>22.011801</v>
       </c>
       <c r="N7">
-        <v>21.9909473349292</v>
+        <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="P7">
-        <v>0.5260265097988847</v>
+        <v>0.5121448712693895</v>
       </c>
       <c r="Q7">
-        <v>10.24160560957331</v>
+        <v>8.231877953509002</v>
       </c>
       <c r="R7">
-        <v>10.24160560957331</v>
+        <v>74.08690158158102</v>
       </c>
       <c r="S7">
-        <v>0.1102925164473287</v>
+        <v>0.05596265362151744</v>
       </c>
       <c r="T7">
-        <v>0.1102925164473287</v>
+        <v>0.05596265362151746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H8">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.09693657671356</v>
+        <v>4.594576333333333</v>
       </c>
       <c r="N8">
-        <v>4.09693657671356</v>
+        <v>13.783729</v>
       </c>
       <c r="O8">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="P8">
-        <v>0.09799929104886662</v>
+        <v>0.1069012346955337</v>
       </c>
       <c r="Q8">
-        <v>1.90802187768828</v>
+        <v>1.718259747309222</v>
       </c>
       <c r="R8">
-        <v>1.90802187768828</v>
+        <v>15.464337725783</v>
       </c>
       <c r="S8">
-        <v>0.02054761160985235</v>
+        <v>0.01168121971845716</v>
       </c>
       <c r="T8">
-        <v>0.02054761160985235</v>
+        <v>0.01168121971845716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3739756666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.121927</v>
+      </c>
+      <c r="I9">
+        <v>0.1092711394000877</v>
+      </c>
+      <c r="J9">
+        <v>0.1092711394000878</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.555183333333334</v>
+      </c>
+      <c r="N9">
+        <v>25.66555</v>
+      </c>
+      <c r="O9">
+        <v>0.1990520115521681</v>
+      </c>
+      <c r="P9">
+        <v>0.1990520115521681</v>
+      </c>
+      <c r="Q9">
+        <v>3.199430390538889</v>
+      </c>
+      <c r="R9">
+        <v>28.79487351485</v>
+      </c>
+      <c r="S9">
+        <v>0.02175064010218484</v>
+      </c>
+      <c r="T9">
+        <v>0.02175064010218485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.56998</v>
+      </c>
+      <c r="I10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.818077</v>
+      </c>
+      <c r="N10">
+        <v>23.454231</v>
+      </c>
+      <c r="O10">
+        <v>0.1819018824829088</v>
+      </c>
+      <c r="P10">
+        <v>0.1819018824829088</v>
+      </c>
+      <c r="Q10">
+        <v>4.091408176153332</v>
+      </c>
+      <c r="R10">
+        <v>36.82267358538</v>
+      </c>
+      <c r="S10">
+        <v>0.02781455943339297</v>
+      </c>
+      <c r="T10">
+        <v>0.02781455943339298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="H9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="I9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="J9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.967185155803</v>
-      </c>
-      <c r="N9">
-        <v>7.967185155803</v>
-      </c>
-      <c r="O9">
-        <v>0.1905761737590932</v>
-      </c>
-      <c r="P9">
-        <v>0.1905761737590932</v>
-      </c>
-      <c r="Q9">
-        <v>3.710470810622035</v>
-      </c>
-      <c r="R9">
-        <v>3.710470810622035</v>
-      </c>
-      <c r="S9">
-        <v>0.03995830131608762</v>
-      </c>
-      <c r="T9">
-        <v>0.03995830131608762</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.56998</v>
+      </c>
+      <c r="I11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>22.011801</v>
+      </c>
+      <c r="N11">
+        <v>66.035403</v>
+      </c>
+      <c r="O11">
+        <v>0.5121448712693895</v>
+      </c>
+      <c r="P11">
+        <v>0.5121448712693895</v>
+      </c>
+      <c r="Q11">
+        <v>11.51936244466</v>
+      </c>
+      <c r="R11">
+        <v>103.67426200194</v>
+      </c>
+      <c r="S11">
+        <v>0.07831191060800742</v>
+      </c>
+      <c r="T11">
+        <v>0.07831191060800743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.56998</v>
+      </c>
+      <c r="I12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.594576333333333</v>
+      </c>
+      <c r="N12">
+        <v>13.783729</v>
+      </c>
+      <c r="O12">
+        <v>0.1069012346955337</v>
+      </c>
+      <c r="P12">
+        <v>0.1069012346955337</v>
+      </c>
+      <c r="Q12">
+        <v>2.404464317268888</v>
+      </c>
+      <c r="R12">
+        <v>21.64017885542</v>
+      </c>
+      <c r="S12">
+        <v>0.01634623405407247</v>
+      </c>
+      <c r="T12">
+        <v>0.01634623405407248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.56998</v>
+      </c>
+      <c r="I13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.555183333333334</v>
+      </c>
+      <c r="N13">
+        <v>25.66555</v>
+      </c>
+      <c r="O13">
+        <v>0.1990520115521681</v>
+      </c>
+      <c r="P13">
+        <v>0.1990520115521681</v>
+      </c>
+      <c r="Q13">
+        <v>4.477155576555555</v>
+      </c>
+      <c r="R13">
+        <v>40.294400189</v>
+      </c>
+      <c r="S13">
+        <v>0.03043698025595974</v>
+      </c>
+      <c r="T13">
+        <v>0.03043698025595975</v>
       </c>
     </row>
   </sheetData>
